--- a/biology/Médecine/Andrei_Baciu/Andrei_Baciu.xlsx
+++ b/biology/Médecine/Andrei_Baciu/Andrei_Baciu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Romică-Andrei Baciu (né le 18 septembre 1986 à Toplița, Roumanie) est un médecin et homme politique libéral roumain.
 </t>
@@ -513,14 +525,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Andrei Baciu a obtenu son diplôme du lycée militaire d’Alba Iulia en 2005[1].
-Andrei Baciu a obtenu son diplôme à la faculté de médecine de Bucarest[1].
-Carrière
-Il a travaillé pendant deux ans en chirurgie cardiovasculaire à Rouen, en France[1].
-Il est le président de l’association SOS Droits des Patients, qui a lancé avec le libéral Cristian Busoi une campagne pour les droits des patients, présentée à la fois par des affiches de rue et sur diverses télévisions[1].
-En 2019, il est secrétaire d'État au sein du Ministère de la santé[2].
-En 2023, il démissionne de la direction du CNAS après des accusations par la DNA concernant l’achat de vaccins pendant la pandémie de Covid-19[3].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrei Baciu a obtenu son diplôme du lycée militaire d’Alba Iulia en 2005.
+Andrei Baciu a obtenu son diplôme à la faculté de médecine de Bucarest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Andrei_Baciu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andrei_Baciu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a travaillé pendant deux ans en chirurgie cardiovasculaire à Rouen, en France.
+Il est le président de l’association SOS Droits des Patients, qui a lancé avec le libéral Cristian Busoi une campagne pour les droits des patients, présentée à la fois par des affiches de rue et sur diverses télévisions.
+En 2019, il est secrétaire d'État au sein du Ministère de la santé.
+En 2023, il démissionne de la direction du CNAS après des accusations par la DNA concernant l’achat de vaccins pendant la pandémie de Covid-19.
 </t>
         </is>
       </c>
